--- a/Lab 7/topological table.xlsx
+++ b/Lab 7/topological table.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>front corner</t>
-  </si>
-  <si>
     <t>right corner</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Front Wall</t>
+  </si>
+  <si>
+    <t>straight hall</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -279,6 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +584,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,26 +597,26 @@
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="11"/>
@@ -623,7 +624,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
@@ -631,7 +632,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
@@ -639,7 +640,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
@@ -647,7 +648,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
@@ -655,7 +656,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -663,7 +664,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
